--- a/public/sample_files/product_import.xlsx
+++ b/public/sample_files/product_import.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9114FF2E-0A27-410F-BD18-F3E25245AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,148 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Product Name</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Sub Category</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
     <t>Sku</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Colors</t>
-  </si>
-  <si>
-    <t>Sizes</t>
-  </si>
-  <si>
-    <t>Grades</t>
-  </si>
-  <si>
-    <t>Is Service</t>
-  </si>
-  <si>
-    <t>Product Details</t>
-  </si>
-  <si>
-    <t>Batch Number</t>
-  </si>
-  <si>
-    <t>Manufacturing Date</t>
-  </si>
-  <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>Expiry Warning</t>
-  </si>
-  <si>
-    <t>Convert Status Expire</t>
-  </si>
-  <si>
     <t>Alert Quantity</t>
   </si>
   <si>
-    <t>Purchase Price</t>
-  </si>
-  <si>
-    <t>Sell Price</t>
-  </si>
-  <si>
     <t>Tax</t>
   </si>
   <si>
     <t>Tax Method</t>
   </si>
   <si>
-    <t>Discount Type</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Discount Start Date</t>
-  </si>
-  <si>
-    <t>Discount End Date</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
-    <t>Grocery</t>
-  </si>
-  <si>
-    <t>Fruits</t>
-  </si>
-  <si>
-    <t>Juicy</t>
-  </si>
-  <si>
     <t>Malik</t>
   </si>
   <si>
     <t>B-01</t>
   </si>
   <si>
-    <t>Kg,Pieces</t>
-  </si>
-  <si>
     <t>Yellow</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>This is banana</t>
-  </si>
-  <si>
-    <t>7/27/2021</t>
-  </si>
-  <si>
-    <t>7/30/2021</t>
-  </si>
-  <si>
     <t>GST</t>
   </si>
   <si>
     <t>inclusive</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
     <t>https://gravatar.com/avatar/164a1d5ca33d94ffcb2c0f2626b47f6e?s=400&amp;d=robohash&amp;r=x</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>Default Store</t>
+  </si>
+  <si>
+    <t>Fruits,,Cam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,26 +213,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,23 +248,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,179 +423,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2">
-        <v>23466</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>10</v>
-      </c>
-      <c r="S2">
-        <v>10.4</v>
-      </c>
-      <c r="T2">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2">
-        <v>2</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>